--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fgf13-Scn8a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1139166666666667</v>
+        <v>0.092277</v>
       </c>
       <c r="H2">
-        <v>0.34175</v>
+        <v>0.276831</v>
       </c>
       <c r="I2">
-        <v>0.04552287366220362</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="J2">
-        <v>0.04552287366220363</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.09955566666666667</v>
+        <v>0.2858103333333333</v>
       </c>
       <c r="N2">
-        <v>0.298667</v>
+        <v>0.8574310000000001</v>
       </c>
       <c r="O2">
-        <v>0.0625817324545918</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="P2">
-        <v>0.0625817324545918</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="Q2">
-        <v>0.01134104969444445</v>
+        <v>0.026373720129</v>
       </c>
       <c r="R2">
-        <v>0.10206944725</v>
+        <v>0.237363481161</v>
       </c>
       <c r="S2">
-        <v>0.002848900300092211</v>
+        <v>0.004435860829542095</v>
       </c>
       <c r="T2">
-        <v>0.002848900300092211</v>
+        <v>0.004435860829542095</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1139166666666667</v>
+        <v>0.092277</v>
       </c>
       <c r="H3">
-        <v>0.34175</v>
+        <v>0.276831</v>
       </c>
       <c r="I3">
-        <v>0.04552287366220362</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="J3">
-        <v>0.04552287366220363</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>4.108862</v>
       </c>
       <c r="O3">
-        <v>0.8609578640319787</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="P3">
-        <v>0.8609578640319787</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="Q3">
-        <v>0.1560226209444445</v>
+        <v>0.126384486258</v>
       </c>
       <c r="R3">
-        <v>1.4042035885</v>
+        <v>1.137460376322</v>
       </c>
       <c r="S3">
-        <v>0.03919327607280845</v>
+        <v>0.02125691746600483</v>
       </c>
       <c r="T3">
-        <v>0.03919327607280846</v>
+        <v>0.02125691746600483</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,57 +655,57 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1139166666666667</v>
+        <v>0.092277</v>
       </c>
       <c r="H4">
-        <v>0.34175</v>
+        <v>0.276831</v>
       </c>
       <c r="I4">
-        <v>0.04552287366220362</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="J4">
-        <v>0.04552287366220363</v>
+        <v>0.03444274323645406</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1175213333333333</v>
+        <v>0.5637756666666666</v>
       </c>
       <c r="N4">
-        <v>0.352564</v>
+        <v>1.691327</v>
       </c>
       <c r="O4">
-        <v>0.07387513826810696</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="P4">
-        <v>0.07387513826810696</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="Q4">
-        <v>0.01338763855555556</v>
+        <v>0.05202352719299999</v>
       </c>
       <c r="R4">
-        <v>0.120488747</v>
+        <v>0.4682117447369999</v>
       </c>
       <c r="S4">
-        <v>0.003363008586156857</v>
+        <v>0.008749964940907129</v>
       </c>
       <c r="T4">
-        <v>0.003363008586156858</v>
+        <v>0.008749964940907129</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.1139166666666667</v>
+        <v>2.276331666666667</v>
       </c>
       <c r="H5">
-        <v>0.34175</v>
+        <v>6.828995</v>
       </c>
       <c r="I5">
-        <v>0.04552287366220362</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="J5">
-        <v>0.04552287366220363</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.004112666666666666</v>
+        <v>0.2858103333333333</v>
       </c>
       <c r="N5">
-        <v>0.012338</v>
+        <v>0.8574310000000001</v>
       </c>
       <c r="O5">
-        <v>0.002585265245322562</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="P5">
-        <v>0.002585265245322562</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="Q5">
-        <v>0.0004685012777777777</v>
+        <v>0.6505991124272222</v>
       </c>
       <c r="R5">
-        <v>0.0042165115</v>
+        <v>5.855392011845001</v>
       </c>
       <c r="S5">
-        <v>0.0001176887031461048</v>
+        <v>0.1094258642480026</v>
       </c>
       <c r="T5">
-        <v>0.0001176887031461049</v>
+        <v>0.1094258642480026</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.03382</v>
+        <v>2.276331666666667</v>
       </c>
       <c r="H6">
-        <v>6.101459999999999</v>
+        <v>6.828995</v>
       </c>
       <c r="I6">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="J6">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09955566666666667</v>
+        <v>1.369620666666667</v>
       </c>
       <c r="N6">
-        <v>0.298667</v>
+        <v>4.108862</v>
       </c>
       <c r="O6">
-        <v>0.0625817324545918</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="P6">
-        <v>0.0625817324545918</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="Q6">
-        <v>0.20247830598</v>
+        <v>3.117710894854445</v>
       </c>
       <c r="R6">
-        <v>1.82230475382</v>
+        <v>28.05939805369</v>
       </c>
       <c r="S6">
-        <v>0.05086306137527614</v>
+        <v>0.5243754604461194</v>
       </c>
       <c r="T6">
-        <v>0.05086306137527614</v>
+        <v>0.5243754604461194</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.03382</v>
+        <v>2.276331666666667</v>
       </c>
       <c r="H7">
-        <v>6.101459999999999</v>
+        <v>6.828995</v>
       </c>
       <c r="I7">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="J7">
-        <v>0.8127461382150372</v>
+        <v>0.8496495022162568</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.369620666666667</v>
+        <v>0.5637756666666666</v>
       </c>
       <c r="N7">
-        <v>4.108862</v>
+        <v>1.691327</v>
       </c>
       <c r="O7">
-        <v>0.8609578640319787</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="P7">
-        <v>0.8609578640319787</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="Q7">
-        <v>2.78556190428</v>
+        <v>1.283340402929444</v>
       </c>
       <c r="R7">
-        <v>25.07005713852</v>
+        <v>11.550063626365</v>
       </c>
       <c r="S7">
-        <v>0.6997401791578577</v>
+        <v>0.2158481775221348</v>
       </c>
       <c r="T7">
-        <v>0.6997401791578577</v>
+        <v>0.2158481775221348</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.03382</v>
+        <v>0.3105333333333333</v>
       </c>
       <c r="H8">
-        <v>6.101459999999999</v>
+        <v>0.9316</v>
       </c>
       <c r="I8">
-        <v>0.8127461382150372</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="J8">
-        <v>0.8127461382150372</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1175213333333333</v>
+        <v>0.2858103333333333</v>
       </c>
       <c r="N8">
-        <v>0.352564</v>
+        <v>0.8574310000000001</v>
       </c>
       <c r="O8">
-        <v>0.07387513826810696</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="P8">
-        <v>0.07387513826810696</v>
+        <v>0.1287894172391936</v>
       </c>
       <c r="Q8">
-        <v>0.23901723816</v>
+        <v>0.08875363551111111</v>
       </c>
       <c r="R8">
-        <v>2.15115514344</v>
+        <v>0.7987827196</v>
       </c>
       <c r="S8">
-        <v>0.06004173333750584</v>
+        <v>0.01492769216164886</v>
       </c>
       <c r="T8">
-        <v>0.06004173333750584</v>
+        <v>0.01492769216164886</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.03382</v>
+        <v>0.3105333333333333</v>
       </c>
       <c r="H9">
-        <v>6.101459999999999</v>
+        <v>0.9316</v>
       </c>
       <c r="I9">
-        <v>0.8127461382150372</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="J9">
-        <v>0.8127461382150372</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.004112666666666666</v>
+        <v>1.369620666666667</v>
       </c>
       <c r="N9">
-        <v>0.012338</v>
+        <v>4.108862</v>
       </c>
       <c r="O9">
-        <v>0.002585265245322562</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="P9">
-        <v>0.002585265245322562</v>
+        <v>0.6171667953412782</v>
       </c>
       <c r="Q9">
-        <v>0.00836442372</v>
+        <v>0.4253128710222223</v>
       </c>
       <c r="R9">
-        <v>0.07527981348</v>
+        <v>3.8278158392</v>
       </c>
       <c r="S9">
-        <v>0.002101164344397462</v>
+        <v>0.0715344174291539</v>
       </c>
       <c r="T9">
-        <v>0.002101164344397463</v>
+        <v>0.07153441742915391</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,241 +1024,55 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3546683333333333</v>
+        <v>0.3105333333333333</v>
       </c>
       <c r="H10">
-        <v>1.064005</v>
+        <v>0.9316</v>
       </c>
       <c r="I10">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="J10">
-        <v>0.1417309881227592</v>
+        <v>0.1159077545472891</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.09955566666666667</v>
+        <v>0.5637756666666666</v>
       </c>
       <c r="N10">
-        <v>0.298667</v>
+        <v>1.691327</v>
       </c>
       <c r="O10">
-        <v>0.0625817324545918</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="P10">
-        <v>0.0625817324545918</v>
+        <v>0.2540437874195283</v>
       </c>
       <c r="Q10">
-        <v>0.03530924237055556</v>
+        <v>0.1750711370222222</v>
       </c>
       <c r="R10">
-        <v>0.317783181335</v>
+        <v>1.5756402332</v>
       </c>
       <c r="S10">
-        <v>0.008869770779223445</v>
+        <v>0.02944564495648638</v>
       </c>
       <c r="T10">
-        <v>0.008869770779223445</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.3546683333333333</v>
-      </c>
-      <c r="H11">
-        <v>1.064005</v>
-      </c>
-      <c r="I11">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="J11">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.369620666666667</v>
-      </c>
-      <c r="N11">
-        <v>4.108862</v>
-      </c>
-      <c r="O11">
-        <v>0.8609578640319787</v>
-      </c>
-      <c r="P11">
-        <v>0.8609578640319787</v>
-      </c>
-      <c r="Q11">
-        <v>0.4857610791455556</v>
-      </c>
-      <c r="R11">
-        <v>4.37184971231</v>
-      </c>
-      <c r="S11">
-        <v>0.1220244088013125</v>
-      </c>
-      <c r="T11">
-        <v>0.1220244088013125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12">
-        <v>2</v>
-      </c>
-      <c r="F12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G12">
-        <v>0.3546683333333333</v>
-      </c>
-      <c r="H12">
-        <v>1.064005</v>
-      </c>
-      <c r="I12">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="J12">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>0.1175213333333333</v>
-      </c>
-      <c r="N12">
-        <v>0.352564</v>
-      </c>
-      <c r="O12">
-        <v>0.07387513826810696</v>
-      </c>
-      <c r="P12">
-        <v>0.07387513826810696</v>
-      </c>
-      <c r="Q12">
-        <v>0.04168109542444444</v>
-      </c>
-      <c r="R12">
-        <v>0.3751298588199999</v>
-      </c>
-      <c r="S12">
-        <v>0.01047039634444426</v>
-      </c>
-      <c r="T12">
-        <v>0.01047039634444426</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>2</v>
-      </c>
-      <c r="F13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G13">
-        <v>0.3546683333333333</v>
-      </c>
-      <c r="H13">
-        <v>1.064005</v>
-      </c>
-      <c r="I13">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="J13">
-        <v>0.1417309881227592</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M13">
-        <v>0.004112666666666666</v>
-      </c>
-      <c r="N13">
-        <v>0.012338</v>
-      </c>
-      <c r="O13">
-        <v>0.002585265245322562</v>
-      </c>
-      <c r="P13">
-        <v>0.002585265245322562</v>
-      </c>
-      <c r="Q13">
-        <v>0.001458632632222222</v>
-      </c>
-      <c r="R13">
-        <v>0.01312769369</v>
-      </c>
-      <c r="S13">
-        <v>0.0003664121977789942</v>
-      </c>
-      <c r="T13">
-        <v>0.0003664121977789942</v>
+        <v>0.02944564495648638</v>
       </c>
     </row>
   </sheetData>
